--- a/codigo/2D/ejemplo_Q8/malla_4/malla4.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_4/malla4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,18 @@
     <sheet name="carga_distr" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="kWinkler" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="prop_mat" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="varios" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="espesor" vbProcedure="false">varios!$B$5</definedName>
+    <definedName function="false" hidden="false" name="g" vbProcedure="false">varios!$B$4</definedName>
+    <definedName function="false" hidden="false" name="Poisson" vbProcedure="false">varios!$B$2</definedName>
+    <definedName function="false" hidden="false" name="rho" vbProcedure="false">varios!$B$3</definedName>
+    <definedName function="false" hidden="false" name="U_ESFUERZO" vbProcedure="false">varios!$B$8</definedName>
+    <definedName function="false" hidden="false" name="U_FUERZA" vbProcedure="false">varios!$B$7</definedName>
+    <definedName function="false" hidden="false" name="U_LONG" vbProcedure="false">varios!$B$6</definedName>
+    <definedName function="false" hidden="false" name="Young" vbProcedure="false">varios!$B$1</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -308,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -410,6 +421,54 @@
   </si>
   <si>
     <t xml:space="preserve">espesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">módulo de Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeficiente de Poisson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de fuerza en N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/m³</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de longitud en m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/s²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aceleracion de la gravedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_FUERZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_ESFUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC_UV</t>
   </si>
 </sst>
 </file>
@@ -558,9 +617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -570,7 +629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10114920" cy="9521640"/>
+          <a:ext cx="10145880" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,9 +662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -615,7 +674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10114920" cy="9521640"/>
+          <a:ext cx="10145880" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,9 +712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
+      <xdr:colOff>662760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,7 +724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10117080" cy="9521640"/>
+          <a:ext cx="10147680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,9 +757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
+      <xdr:colOff>662760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,7 +769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10117080" cy="9521640"/>
+          <a:ext cx="10147680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,9 +807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -760,7 +819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10117440" cy="9521640"/>
+          <a:ext cx="10148040" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,9 +852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -805,7 +864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10117440" cy="9521640"/>
+          <a:ext cx="10148040" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,9 +902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -855,7 +914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10123920" cy="9521640"/>
+          <a:ext cx="10161000" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,9 +947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -900,7 +959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10123920" cy="9521640"/>
+          <a:ext cx="10161000" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,9 +992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -945,7 +1004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10123920" cy="9521640"/>
+          <a:ext cx="10161000" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,9 +1037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -990,7 +1049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10123920" cy="9521640"/>
+          <a:ext cx="10161000" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,9 +1087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1040,7 +1099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10076400" cy="9559080"/>
+          <a:ext cx="10121040" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,9 +1132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1085,7 +1144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10076400" cy="9559080"/>
+          <a:ext cx="10121040" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,9 +1177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1130,7 +1189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10076400" cy="9559080"/>
+          <a:ext cx="10121040" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1175,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10076400" cy="9559080"/>
+          <a:ext cx="10121040" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,11 +1268,11 @@
   </sheetPr>
   <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A131" activeCellId="0" sqref="A131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A131" activeCellId="1" sqref="A1:I19 A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="11.52"/>
@@ -5211,10 +5270,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="1" sqref="A1:I19 K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.79"/>
@@ -8515,10 +8574,10 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
   </cols>
@@ -8885,10 +8944,10 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
   </cols>
@@ -8925,10 +8984,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="1" sqref="A1:I19 J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9237,10 +9296,10 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9289,10 +9348,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
+      <selection pane="topLeft" activeCell="L39" activeCellId="1" sqref="A1:I19 L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -9338,4 +9397,131 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A1:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">7850</f>
+        <v>7850</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/codigo/2D/ejemplo_Q8/malla_4/malla4.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_4/malla4.xlsx
@@ -5,19 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="LaG_mat" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="restric_2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="restric" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="carga_distr" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="calc_carga_distr" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="kWinkler" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="prop_mat" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="varios" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="restric" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="carga_punt" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="carga_distr" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="calc_carga_distr" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="kWinkler" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="prop_mat" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="varios" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="espesor" vbProcedure="false">varios!$B$5</definedName>
@@ -125,43 +124,6 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">m</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -188,13 +150,13 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +195,69 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
     <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,19 +280,6 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -276,84 +287,8 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pa</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">kg/m^3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">m</t>
+          <t xml:space="preserve">Mg/m³</t>
         </r>
       </text>
     </comment>
@@ -362,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -416,6 +351,15 @@
   </si>
   <si>
     <t xml:space="preserve">lado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodo_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodo_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodo_k</t>
   </si>
   <si>
     <t xml:space="preserve">tix</t>
@@ -517,16 +461,10 @@
     <t xml:space="preserve">coeficiente de Poisson</t>
   </si>
   <si>
-    <t xml:space="preserve">Unidades de fuerza en N</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mg/m³</t>
   </si>
   <si>
     <t xml:space="preserve">densidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidades de longitud en m</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
@@ -566,7 +504,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -596,11 +534,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -608,10 +541,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -677,11 +609,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,9 +644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -724,7 +656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="9520200"/>
+          <a:ext cx="10170360" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,9 +689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -769,7 +701,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="9520200"/>
+          <a:ext cx="10170360" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,9 +739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
+      <xdr:colOff>662040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -819,7 +751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10159920" cy="9520200"/>
+          <a:ext cx="10172160" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,9 +784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
+      <xdr:colOff>662040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -864,7 +796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10159920" cy="9520200"/>
+          <a:ext cx="10172160" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,9 +834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:colOff>722880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -914,7 +846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10159920" cy="9520200"/>
+          <a:ext cx="10172880" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,9 +879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:colOff>722880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -959,7 +891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10159920" cy="9520200"/>
+          <a:ext cx="10172880" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -996,10 +928,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723240</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262080</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1009,7 +941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10160280" cy="9520200"/>
+          <a:ext cx="10190880" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,10 +973,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723240</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262080</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1054,7 +986,97 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10160280" cy="9520200"/>
+          <a:ext cx="10190880" cy="9519840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262080</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10190880" cy="9519840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262080</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10190880" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1092,19 +1114,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10175760" cy="9520200"/>
+          <a:ext cx="10143360" cy="9557280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,19 +1159,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10175760" cy="9520200"/>
+          <a:ext cx="10143360" cy="9557280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1182,19 +1204,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10175760" cy="9520200"/>
+          <a:ext cx="10143360" cy="9557280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,104 +1249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10175760" cy="9520200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10128240" cy="9557640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1334,97 +1261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10128240" cy="9557640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10128240" cy="9557640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10128240" cy="9557640"/>
+          <a:ext cx="10143360" cy="9557280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,11 +1295,11 @@
   </sheetPr>
   <dimension ref="A1:C1063"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="11.52"/>
@@ -13174,135 +13011,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="n">
-        <v>21538000</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="7"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -13310,11 +13018,11 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L326" activeCellId="0" sqref="L326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.79"/>
@@ -13381,6 +13089,9 @@
       <c r="I2" s="0" t="n">
         <v>466</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -13410,6 +13121,9 @@
       <c r="I3" s="0" t="n">
         <v>469</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -13439,6 +13153,9 @@
       <c r="I4" s="0" t="n">
         <v>473</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -13468,6 +13185,9 @@
       <c r="I5" s="0" t="n">
         <v>475</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -13497,6 +13217,9 @@
       <c r="I6" s="0" t="n">
         <v>478</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -13526,6 +13249,9 @@
       <c r="I7" s="0" t="n">
         <v>482</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -13555,6 +13281,9 @@
       <c r="I8" s="0" t="n">
         <v>486</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -13584,6 +13313,9 @@
       <c r="I9" s="0" t="n">
         <v>490</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -13613,6 +13345,9 @@
       <c r="I10" s="0" t="n">
         <v>485</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -13642,6 +13377,9 @@
       <c r="I11" s="0" t="n">
         <v>497</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -13671,6 +13409,9 @@
       <c r="I12" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -13700,6 +13441,9 @@
       <c r="I13" s="0" t="n">
         <v>478</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -13729,6 +13473,9 @@
       <c r="I14" s="0" t="n">
         <v>508</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -13758,6 +13505,9 @@
       <c r="I15" s="0" t="n">
         <v>510</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -13787,6 +13537,9 @@
       <c r="I16" s="0" t="n">
         <v>514</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -13816,6 +13569,9 @@
       <c r="I17" s="0" t="n">
         <v>517</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -13845,6 +13601,9 @@
       <c r="I18" s="0" t="n">
         <v>521</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -13874,6 +13633,9 @@
       <c r="I19" s="0" t="n">
         <v>524</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -13903,6 +13665,9 @@
       <c r="I20" s="0" t="n">
         <v>528</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -13932,6 +13697,9 @@
       <c r="I21" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -13961,6 +13729,9 @@
       <c r="I22" s="0" t="n">
         <v>532</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -13990,6 +13761,9 @@
       <c r="I23" s="0" t="n">
         <v>496</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -14019,6 +13793,9 @@
       <c r="I24" s="0" t="n">
         <v>538</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -14048,6 +13825,9 @@
       <c r="I25" s="0" t="n">
         <v>542</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -14077,6 +13857,9 @@
       <c r="I26" s="0" t="n">
         <v>546</v>
       </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -14106,6 +13889,9 @@
       <c r="I27" s="0" t="n">
         <v>549</v>
       </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -14135,6 +13921,9 @@
       <c r="I28" s="0" t="n">
         <v>553</v>
       </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -14164,6 +13953,9 @@
       <c r="I29" s="0" t="n">
         <v>557</v>
       </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -14193,6 +13985,9 @@
       <c r="I30" s="0" t="n">
         <v>540</v>
       </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -14222,6 +14017,9 @@
       <c r="I31" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -14251,6 +14049,9 @@
       <c r="I32" s="0" t="n">
         <v>567</v>
       </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -14280,6 +14081,9 @@
       <c r="I33" s="0" t="n">
         <v>571</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -14309,6 +14113,9 @@
       <c r="I34" s="0" t="n">
         <v>562</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -14338,6 +14145,9 @@
       <c r="I35" s="0" t="n">
         <v>577</v>
       </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -14367,6 +14177,9 @@
       <c r="I36" s="0" t="n">
         <v>579</v>
       </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -14396,6 +14209,9 @@
       <c r="I37" s="0" t="n">
         <v>582</v>
       </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -14425,6 +14241,9 @@
       <c r="I38" s="0" t="n">
         <v>584</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -14454,6 +14273,9 @@
       <c r="I39" s="0" t="n">
         <v>588</v>
       </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -14483,6 +14305,9 @@
       <c r="I40" s="0" t="n">
         <v>590</v>
       </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -14512,6 +14337,9 @@
       <c r="I41" s="0" t="n">
         <v>592</v>
       </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -14541,6 +14369,9 @@
       <c r="I42" s="0" t="n">
         <v>596</v>
       </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -14570,6 +14401,9 @@
       <c r="I43" s="0" t="n">
         <v>599</v>
       </c>
+      <c r="J43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -14599,6 +14433,9 @@
       <c r="I44" s="0" t="n">
         <v>603</v>
       </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -14628,6 +14465,9 @@
       <c r="I45" s="0" t="n">
         <v>607</v>
       </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -14657,6 +14497,9 @@
       <c r="I46" s="0" t="n">
         <v>610</v>
       </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -14686,6 +14529,9 @@
       <c r="I47" s="0" t="n">
         <v>613</v>
       </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -14715,6 +14561,9 @@
       <c r="I48" s="0" t="n">
         <v>616</v>
       </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -14744,6 +14593,9 @@
       <c r="I49" s="0" t="n">
         <v>619</v>
       </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -14773,6 +14625,9 @@
       <c r="I50" s="0" t="n">
         <v>621</v>
       </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -14802,6 +14657,9 @@
       <c r="I51" s="0" t="n">
         <v>591</v>
       </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -14831,6 +14689,9 @@
       <c r="I52" s="0" t="n">
         <v>624</v>
       </c>
+      <c r="J52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -14860,6 +14721,9 @@
       <c r="I53" s="0" t="n">
         <v>516</v>
       </c>
+      <c r="J53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -14889,6 +14753,9 @@
       <c r="I54" s="0" t="n">
         <v>630</v>
       </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -14918,6 +14785,9 @@
       <c r="I55" s="0" t="n">
         <v>633</v>
       </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -14947,6 +14817,9 @@
       <c r="I56" s="0" t="n">
         <v>486</v>
       </c>
+      <c r="J56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -14976,6 +14849,9 @@
       <c r="I57" s="0" t="n">
         <v>638</v>
       </c>
+      <c r="J57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -15005,6 +14881,9 @@
       <c r="I58" s="0" t="n">
         <v>641</v>
       </c>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -15034,6 +14913,9 @@
       <c r="I59" s="0" t="n">
         <v>644</v>
       </c>
+      <c r="J59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -15063,6 +14945,9 @@
       <c r="I60" s="0" t="n">
         <v>648</v>
       </c>
+      <c r="J60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -15092,6 +14977,9 @@
       <c r="I61" s="0" t="n">
         <v>652</v>
       </c>
+      <c r="J61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -15121,6 +15009,9 @@
       <c r="I62" s="0" t="n">
         <v>656</v>
       </c>
+      <c r="J62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -15150,6 +15041,9 @@
       <c r="I63" s="0" t="n">
         <v>660</v>
       </c>
+      <c r="J63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -15179,6 +15073,9 @@
       <c r="I64" s="0" t="n">
         <v>664</v>
       </c>
+      <c r="J64" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -15208,6 +15105,9 @@
       <c r="I65" s="0" t="n">
         <v>668</v>
       </c>
+      <c r="J65" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -15237,6 +15137,9 @@
       <c r="I66" s="0" t="n">
         <v>671</v>
       </c>
+      <c r="J66" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -15266,6 +15169,9 @@
       <c r="I67" s="0" t="n">
         <v>672</v>
       </c>
+      <c r="J67" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -15295,6 +15201,9 @@
       <c r="I68" s="0" t="n">
         <v>674</v>
       </c>
+      <c r="J68" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -15324,6 +15233,9 @@
       <c r="I69" s="0" t="n">
         <v>582</v>
       </c>
+      <c r="J69" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -15353,6 +15265,9 @@
       <c r="I70" s="0" t="n">
         <v>635</v>
       </c>
+      <c r="J70" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -15382,6 +15297,9 @@
       <c r="I71" s="0" t="n">
         <v>680</v>
       </c>
+      <c r="J71" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -15411,6 +15329,9 @@
       <c r="I72" s="0" t="n">
         <v>519</v>
       </c>
+      <c r="J72" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -15440,6 +15361,9 @@
       <c r="I73" s="0" t="n">
         <v>684</v>
       </c>
+      <c r="J73" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -15469,6 +15393,9 @@
       <c r="I74" s="0" t="n">
         <v>636</v>
       </c>
+      <c r="J74" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -15498,6 +15425,9 @@
       <c r="I75" s="0" t="n">
         <v>153</v>
       </c>
+      <c r="J75" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -15527,6 +15457,9 @@
       <c r="I76" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="J76" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -15556,6 +15489,9 @@
       <c r="I77" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="J77" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -15585,6 +15521,9 @@
       <c r="I78" s="0" t="n">
         <v>151</v>
       </c>
+      <c r="J78" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -15614,6 +15553,9 @@
       <c r="I79" s="0" t="n">
         <v>141</v>
       </c>
+      <c r="J79" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -15643,6 +15585,9 @@
       <c r="I80" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="J80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -15672,6 +15617,9 @@
       <c r="I81" s="0" t="n">
         <v>697</v>
       </c>
+      <c r="J81" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -15701,6 +15649,9 @@
       <c r="I82" s="0" t="n">
         <v>684</v>
       </c>
+      <c r="J82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -15730,6 +15681,9 @@
       <c r="I83" s="0" t="n">
         <v>703</v>
       </c>
+      <c r="J83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -15759,6 +15713,9 @@
       <c r="I84" s="0" t="n">
         <v>538</v>
       </c>
+      <c r="J84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -15788,6 +15745,9 @@
       <c r="I85" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="J85" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -15817,6 +15777,9 @@
       <c r="I86" s="0" t="n">
         <v>503</v>
       </c>
+      <c r="J86" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -15846,6 +15809,9 @@
       <c r="I87" s="0" t="n">
         <v>139</v>
       </c>
+      <c r="J87" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -15875,6 +15841,9 @@
       <c r="I88" s="0" t="n">
         <v>714</v>
       </c>
+      <c r="J88" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -15904,6 +15873,9 @@
       <c r="I89" s="0" t="n">
         <v>716</v>
       </c>
+      <c r="J89" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -15933,6 +15905,9 @@
       <c r="I90" s="0" t="n">
         <v>557</v>
       </c>
+      <c r="J90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -15962,6 +15937,9 @@
       <c r="I91" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="J91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -15991,6 +15969,9 @@
       <c r="I92" s="0" t="n">
         <v>671</v>
       </c>
+      <c r="J92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -16020,6 +16001,9 @@
       <c r="I93" s="0" t="n">
         <v>725</v>
       </c>
+      <c r="J93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -16049,6 +16033,9 @@
       <c r="I94" s="0" t="n">
         <v>728</v>
       </c>
+      <c r="J94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -16078,6 +16065,9 @@
       <c r="I95" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="J95" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -16107,6 +16097,9 @@
       <c r="I96" s="0" t="n">
         <v>89</v>
       </c>
+      <c r="J96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -16136,6 +16129,9 @@
       <c r="I97" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="J97" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -16165,6 +16161,9 @@
       <c r="I98" s="0" t="n">
         <v>735</v>
       </c>
+      <c r="J98" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -16194,6 +16193,9 @@
       <c r="I99" s="0" t="n">
         <v>739</v>
       </c>
+      <c r="J99" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
@@ -16223,6 +16225,9 @@
       <c r="I100" s="0" t="n">
         <v>742</v>
       </c>
+      <c r="J100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
@@ -16252,6 +16257,9 @@
       <c r="I101" s="0" t="n">
         <v>744</v>
       </c>
+      <c r="J101" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -16281,6 +16289,9 @@
       <c r="I102" s="0" t="n">
         <v>748</v>
       </c>
+      <c r="J102" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -16310,6 +16321,9 @@
       <c r="I103" s="0" t="n">
         <v>751</v>
       </c>
+      <c r="J103" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -16339,6 +16353,9 @@
       <c r="I104" s="0" t="n">
         <v>696</v>
       </c>
+      <c r="J104" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -16368,6 +16385,9 @@
       <c r="I105" s="0" t="n">
         <v>480</v>
       </c>
+      <c r="J105" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -16397,6 +16417,9 @@
       <c r="I106" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -16426,6 +16449,9 @@
       <c r="I107" s="0" t="n">
         <v>759</v>
       </c>
+      <c r="J107" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -16455,6 +16481,9 @@
       <c r="I108" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="J108" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -16484,6 +16513,9 @@
       <c r="I109" s="0" t="n">
         <v>763</v>
       </c>
+      <c r="J109" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -16513,6 +16545,9 @@
       <c r="I110" s="0" t="n">
         <v>767</v>
       </c>
+      <c r="J110" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -16542,6 +16577,9 @@
       <c r="I111" s="0" t="n">
         <v>770</v>
       </c>
+      <c r="J111" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -16571,6 +16609,9 @@
       <c r="I112" s="0" t="n">
         <v>772</v>
       </c>
+      <c r="J112" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -16600,6 +16641,9 @@
       <c r="I113" s="0" t="n">
         <v>776</v>
       </c>
+      <c r="J113" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -16629,6 +16673,9 @@
       <c r="I114" s="0" t="n">
         <v>779</v>
       </c>
+      <c r="J114" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -16658,6 +16705,9 @@
       <c r="I115" s="0" t="n">
         <v>782</v>
       </c>
+      <c r="J115" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -16687,6 +16737,9 @@
       <c r="I116" s="0" t="n">
         <v>539</v>
       </c>
+      <c r="J116" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -16716,6 +16769,9 @@
       <c r="I117" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="J117" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -16745,6 +16801,9 @@
       <c r="I118" s="0" t="n">
         <v>791</v>
       </c>
+      <c r="J118" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -16774,6 +16833,9 @@
       <c r="I119" s="0" t="n">
         <v>795</v>
       </c>
+      <c r="J119" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -16803,6 +16865,9 @@
       <c r="I120" s="0" t="n">
         <v>763</v>
       </c>
+      <c r="J120" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -16832,6 +16897,9 @@
       <c r="I121" s="0" t="n">
         <v>800</v>
       </c>
+      <c r="J121" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -16861,6 +16929,9 @@
       <c r="I122" s="0" t="n">
         <v>803</v>
       </c>
+      <c r="J122" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -16890,6 +16961,9 @@
       <c r="I123" s="0" t="n">
         <v>806</v>
       </c>
+      <c r="J123" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -16919,6 +16993,9 @@
       <c r="I124" s="0" t="n">
         <v>640</v>
       </c>
+      <c r="J124" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -16948,6 +17025,9 @@
       <c r="I125" s="0" t="n">
         <v>801</v>
       </c>
+      <c r="J125" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -16977,6 +17057,9 @@
       <c r="I126" s="0" t="n">
         <v>732</v>
       </c>
+      <c r="J126" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -17006,6 +17089,9 @@
       <c r="I127" s="0" t="n">
         <v>641</v>
       </c>
+      <c r="J127" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -17035,6 +17121,9 @@
       <c r="I128" s="0" t="n">
         <v>818</v>
       </c>
+      <c r="J128" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -17064,6 +17153,9 @@
       <c r="I129" s="0" t="n">
         <v>465</v>
       </c>
+      <c r="J129" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -17093,6 +17185,9 @@
       <c r="I130" s="0" t="n">
         <v>820</v>
       </c>
+      <c r="J130" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -17122,6 +17217,9 @@
       <c r="I131" s="0" t="n">
         <v>822</v>
       </c>
+      <c r="J131" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -17151,6 +17249,9 @@
       <c r="I132" s="0" t="n">
         <v>823</v>
       </c>
+      <c r="J132" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -17180,6 +17281,9 @@
       <c r="I133" s="0" t="n">
         <v>571</v>
       </c>
+      <c r="J133" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -17209,6 +17313,9 @@
       <c r="I134" s="0" t="n">
         <v>826</v>
       </c>
+      <c r="J134" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -17238,6 +17345,9 @@
       <c r="I135" s="0" t="n">
         <v>830</v>
       </c>
+      <c r="J135" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -17267,6 +17377,9 @@
       <c r="I136" s="0" t="n">
         <v>522</v>
       </c>
+      <c r="J136" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -17296,6 +17409,9 @@
       <c r="I137" s="0" t="n">
         <v>782</v>
       </c>
+      <c r="J137" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -17325,6 +17441,9 @@
       <c r="I138" s="0" t="n">
         <v>735</v>
       </c>
+      <c r="J138" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
@@ -17354,6 +17473,9 @@
       <c r="I139" s="0" t="n">
         <v>757</v>
       </c>
+      <c r="J139" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -17383,6 +17505,9 @@
       <c r="I140" s="0" t="n">
         <v>510</v>
       </c>
+      <c r="J140" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -17412,6 +17537,9 @@
       <c r="I141" s="0" t="n">
         <v>725</v>
       </c>
+      <c r="J141" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -17441,6 +17569,9 @@
       <c r="I142" s="0" t="n">
         <v>737</v>
       </c>
+      <c r="J142" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -17470,6 +17601,9 @@
       <c r="I143" s="0" t="n">
         <v>701</v>
       </c>
+      <c r="J143" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -17499,6 +17633,9 @@
       <c r="I144" s="0" t="n">
         <v>843</v>
       </c>
+      <c r="J144" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -17528,6 +17665,9 @@
       <c r="I145" s="0" t="n">
         <v>531</v>
       </c>
+      <c r="J145" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -17557,6 +17697,9 @@
       <c r="I146" s="0" t="n">
         <v>517</v>
       </c>
+      <c r="J146" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -17586,6 +17729,9 @@
       <c r="I147" s="0" t="n">
         <v>621</v>
       </c>
+      <c r="J147" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -17615,6 +17761,9 @@
       <c r="I148" s="0" t="n">
         <v>749</v>
       </c>
+      <c r="J148" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -17644,6 +17793,9 @@
       <c r="I149" s="0" t="n">
         <v>728</v>
       </c>
+      <c r="J149" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -17673,6 +17825,9 @@
       <c r="I150" s="0" t="n">
         <v>853</v>
       </c>
+      <c r="J150" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -17702,6 +17857,9 @@
       <c r="I151" s="0" t="n">
         <v>856</v>
       </c>
+      <c r="J151" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
@@ -17731,6 +17889,9 @@
       <c r="I152" s="0" t="n">
         <v>675</v>
       </c>
+      <c r="J152" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
@@ -17760,6 +17921,9 @@
       <c r="I153" s="0" t="n">
         <v>860</v>
       </c>
+      <c r="J153" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
@@ -17789,6 +17953,9 @@
       <c r="I154" s="0" t="n">
         <v>716</v>
       </c>
+      <c r="J154" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
@@ -17818,6 +17985,9 @@
       <c r="I155" s="0" t="n">
         <v>863</v>
       </c>
+      <c r="J155" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
@@ -17847,6 +18017,9 @@
       <c r="I156" s="0" t="n">
         <v>866</v>
       </c>
+      <c r="J156" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
@@ -17876,6 +18049,9 @@
       <c r="I157" s="0" t="n">
         <v>867</v>
       </c>
+      <c r="J157" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -17905,6 +18081,9 @@
       <c r="I158" s="0" t="n">
         <v>547</v>
       </c>
+      <c r="J158" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -17934,6 +18113,9 @@
       <c r="I159" s="0" t="n">
         <v>870</v>
       </c>
+      <c r="J159" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
@@ -17963,6 +18145,9 @@
       <c r="I160" s="0" t="n">
         <v>818</v>
       </c>
+      <c r="J160" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
@@ -17992,6 +18177,9 @@
       <c r="I161" s="0" t="n">
         <v>849</v>
       </c>
+      <c r="J161" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
@@ -18021,6 +18209,9 @@
       <c r="I162" s="0" t="n">
         <v>875</v>
       </c>
+      <c r="J162" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -18050,6 +18241,9 @@
       <c r="I163" s="0" t="n">
         <v>877</v>
       </c>
+      <c r="J163" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -18079,6 +18273,9 @@
       <c r="I164" s="0" t="n">
         <v>880</v>
       </c>
+      <c r="J164" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
@@ -18108,6 +18305,9 @@
       <c r="I165" s="0" t="n">
         <v>512</v>
       </c>
+      <c r="J165" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
@@ -18137,6 +18337,9 @@
       <c r="I166" s="0" t="n">
         <v>497</v>
       </c>
+      <c r="J166" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
@@ -18166,6 +18369,9 @@
       <c r="I167" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="J167" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
@@ -18195,6 +18401,9 @@
       <c r="I168" s="0" t="n">
         <v>168</v>
       </c>
+      <c r="J168" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
@@ -18224,6 +18433,9 @@
       <c r="I169" s="0" t="n">
         <v>890</v>
       </c>
+      <c r="J169" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
@@ -18253,6 +18465,9 @@
       <c r="I170" s="0" t="n">
         <v>812</v>
       </c>
+      <c r="J170" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
@@ -18282,6 +18497,9 @@
       <c r="I171" s="0" t="n">
         <v>871</v>
       </c>
+      <c r="J171" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -18311,6 +18529,9 @@
       <c r="I172" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="J172" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
@@ -18340,6 +18561,9 @@
       <c r="I173" s="0" t="n">
         <v>897</v>
       </c>
+      <c r="J173" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -18369,6 +18593,9 @@
       <c r="I174" s="0" t="n">
         <v>755</v>
       </c>
+      <c r="J174" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -18398,6 +18625,9 @@
       <c r="I175" s="0" t="n">
         <v>546</v>
       </c>
+      <c r="J175" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
@@ -18427,6 +18657,9 @@
       <c r="I176" s="0" t="n">
         <v>771</v>
       </c>
+      <c r="J176" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
@@ -18456,6 +18689,9 @@
       <c r="I177" s="0" t="n">
         <v>905</v>
       </c>
+      <c r="J177" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -18485,6 +18721,9 @@
       <c r="I178" s="0" t="n">
         <v>756</v>
       </c>
+      <c r="J178" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -18514,6 +18753,9 @@
       <c r="I179" s="0" t="n">
         <v>509</v>
       </c>
+      <c r="J179" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
@@ -18543,6 +18785,9 @@
       <c r="I180" s="0" t="n">
         <v>483</v>
       </c>
+      <c r="J180" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
@@ -18572,6 +18817,9 @@
       <c r="I181" s="0" t="n">
         <v>803</v>
       </c>
+      <c r="J181" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
@@ -18601,6 +18849,9 @@
       <c r="I182" s="0" t="n">
         <v>841</v>
       </c>
+      <c r="J182" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
@@ -18630,6 +18881,9 @@
       <c r="I183" s="0" t="n">
         <v>148</v>
       </c>
+      <c r="J183" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
@@ -18659,6 +18913,9 @@
       <c r="I184" s="0" t="n">
         <v>915</v>
       </c>
+      <c r="J184" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
@@ -18688,6 +18945,9 @@
       <c r="I185" s="0" t="n">
         <v>898</v>
       </c>
+      <c r="J185" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
@@ -18717,6 +18977,9 @@
       <c r="I186" s="0" t="n">
         <v>867</v>
       </c>
+      <c r="J186" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
@@ -18746,6 +19009,9 @@
       <c r="I187" s="0" t="n">
         <v>507</v>
       </c>
+      <c r="J187" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
@@ -18775,6 +19041,9 @@
       <c r="I188" s="0" t="n">
         <v>720</v>
       </c>
+      <c r="J188" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
@@ -18804,6 +19073,9 @@
       <c r="I189" s="0" t="n">
         <v>566</v>
       </c>
+      <c r="J189" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
@@ -18833,6 +19105,9 @@
       <c r="I190" s="0" t="n">
         <v>644</v>
       </c>
+      <c r="J190" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
@@ -18862,6 +19137,9 @@
       <c r="I191" s="0" t="n">
         <v>814</v>
       </c>
+      <c r="J191" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
@@ -18891,6 +19169,9 @@
       <c r="I192" s="0" t="n">
         <v>901</v>
       </c>
+      <c r="J192" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
@@ -18920,6 +19201,9 @@
       <c r="I193" s="0" t="n">
         <v>864</v>
       </c>
+      <c r="J193" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -18949,6 +19233,9 @@
       <c r="I194" s="0" t="n">
         <v>930</v>
       </c>
+      <c r="J194" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
@@ -18978,6 +19265,9 @@
       <c r="I195" s="0" t="n">
         <v>747</v>
       </c>
+      <c r="J195" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
@@ -19007,6 +19297,9 @@
       <c r="I196" s="0" t="n">
         <v>137</v>
       </c>
+      <c r="J196" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
@@ -19036,6 +19329,9 @@
       <c r="I197" s="0" t="n">
         <v>854</v>
       </c>
+      <c r="J197" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
@@ -19065,6 +19361,9 @@
       <c r="I198" s="0" t="n">
         <v>742</v>
       </c>
+      <c r="J198" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
@@ -19094,6 +19393,9 @@
       <c r="I199" s="0" t="n">
         <v>595</v>
       </c>
+      <c r="J199" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
@@ -19123,6 +19425,9 @@
       <c r="I200" s="0" t="n">
         <v>943</v>
       </c>
+      <c r="J200" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
@@ -19152,6 +19457,9 @@
       <c r="I201" s="0" t="n">
         <v>182</v>
       </c>
+      <c r="J201" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
@@ -19181,6 +19489,9 @@
       <c r="I202" s="0" t="n">
         <v>144</v>
       </c>
+      <c r="J202" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -19210,6 +19521,9 @@
       <c r="I203" s="0" t="n">
         <v>170</v>
       </c>
+      <c r="J203" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -19239,6 +19553,9 @@
       <c r="I204" s="0" t="n">
         <v>807</v>
       </c>
+      <c r="J204" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -19268,6 +19585,9 @@
       <c r="I205" s="0" t="n">
         <v>949</v>
       </c>
+      <c r="J205" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -19297,6 +19617,9 @@
       <c r="I206" s="0" t="n">
         <v>951</v>
       </c>
+      <c r="J206" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -19326,6 +19649,9 @@
       <c r="I207" s="0" t="n">
         <v>631</v>
       </c>
+      <c r="J207" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -19355,6 +19681,9 @@
       <c r="I208" s="0" t="n">
         <v>721</v>
       </c>
+      <c r="J208" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -19384,6 +19713,9 @@
       <c r="I209" s="0" t="n">
         <v>956</v>
       </c>
+      <c r="J209" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -19413,6 +19745,9 @@
       <c r="I210" s="0" t="n">
         <v>653</v>
       </c>
+      <c r="J210" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
@@ -19442,6 +19777,9 @@
       <c r="I211" s="0" t="n">
         <v>688</v>
       </c>
+      <c r="J211" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
@@ -19471,6 +19809,9 @@
       <c r="I212" s="0" t="n">
         <v>730</v>
       </c>
+      <c r="J212" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
@@ -19500,6 +19841,9 @@
       <c r="I213" s="0" t="n">
         <v>960</v>
       </c>
+      <c r="J213" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
@@ -19529,6 +19873,9 @@
       <c r="I214" s="0" t="n">
         <v>940</v>
       </c>
+      <c r="J214" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
@@ -19558,6 +19905,9 @@
       <c r="I215" s="0" t="n">
         <v>965</v>
       </c>
+      <c r="J215" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
@@ -19587,6 +19937,9 @@
       <c r="I216" s="0" t="n">
         <v>967</v>
       </c>
+      <c r="J216" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
@@ -19616,6 +19969,9 @@
       <c r="I217" s="0" t="n">
         <v>968</v>
       </c>
+      <c r="J217" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
@@ -19645,6 +20001,9 @@
       <c r="I218" s="0" t="n">
         <v>508</v>
       </c>
+      <c r="J218" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
@@ -19674,6 +20033,9 @@
       <c r="I219" s="0" t="n">
         <v>848</v>
       </c>
+      <c r="J219" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
@@ -19703,6 +20065,9 @@
       <c r="I220" s="0" t="n">
         <v>738</v>
       </c>
+      <c r="J220" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
@@ -19732,6 +20097,9 @@
       <c r="I221" s="0" t="n">
         <v>677</v>
       </c>
+      <c r="J221" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
@@ -19761,6 +20129,9 @@
       <c r="I222" s="0" t="n">
         <v>169</v>
       </c>
+      <c r="J222" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
@@ -19790,6 +20161,9 @@
       <c r="I223" s="0" t="n">
         <v>880</v>
       </c>
+      <c r="J223" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
@@ -19819,6 +20193,9 @@
       <c r="I224" s="0" t="n">
         <v>980</v>
       </c>
+      <c r="J224" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
@@ -19848,6 +20225,9 @@
       <c r="I225" s="0" t="n">
         <v>963</v>
       </c>
+      <c r="J225" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
@@ -19877,6 +20257,9 @@
       <c r="I226" s="0" t="n">
         <v>663</v>
       </c>
+      <c r="J226" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
@@ -19906,6 +20289,9 @@
       <c r="I227" s="0" t="n">
         <v>619</v>
       </c>
+      <c r="J227" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
@@ -19935,6 +20321,9 @@
       <c r="I228" s="0" t="n">
         <v>698</v>
       </c>
+      <c r="J228" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
@@ -19964,6 +20353,9 @@
       <c r="I229" s="0" t="n">
         <v>988</v>
       </c>
+      <c r="J229" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
@@ -19993,6 +20385,9 @@
       <c r="I230" s="0" t="n">
         <v>926</v>
       </c>
+      <c r="J230" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
@@ -20022,6 +20417,9 @@
       <c r="I231" s="0" t="n">
         <v>542</v>
       </c>
+      <c r="J231" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
@@ -20051,6 +20449,9 @@
       <c r="I232" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="J232" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
@@ -20080,6 +20481,9 @@
       <c r="I233" s="0" t="n">
         <v>878</v>
       </c>
+      <c r="J233" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
@@ -20109,6 +20513,9 @@
       <c r="I234" s="0" t="n">
         <v>961</v>
       </c>
+      <c r="J234" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
@@ -20138,6 +20545,9 @@
       <c r="I235" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="J235" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
@@ -20167,6 +20577,9 @@
       <c r="I236" s="0" t="n">
         <v>674</v>
       </c>
+      <c r="J236" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
@@ -20196,6 +20609,9 @@
       <c r="I237" s="0" t="n">
         <v>683</v>
       </c>
+      <c r="J237" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
@@ -20225,6 +20641,9 @@
       <c r="I238" s="0" t="n">
         <v>875</v>
       </c>
+      <c r="J238" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
@@ -20254,6 +20673,9 @@
       <c r="I239" s="0" t="n">
         <v>932</v>
       </c>
+      <c r="J239" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
@@ -20283,6 +20705,9 @@
       <c r="I240" s="0" t="n">
         <v>764</v>
       </c>
+      <c r="J240" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
@@ -20312,6 +20737,9 @@
       <c r="I241" s="0" t="n">
         <v>602</v>
       </c>
+      <c r="J241" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
@@ -20341,6 +20769,9 @@
       <c r="I242" s="0" t="n">
         <v>632</v>
       </c>
+      <c r="J242" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
@@ -20370,6 +20801,9 @@
       <c r="I243" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="J243" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
@@ -20399,6 +20833,9 @@
       <c r="I244" s="0" t="n">
         <v>847</v>
       </c>
+      <c r="J244" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
@@ -20428,6 +20865,9 @@
       <c r="I245" s="0" t="n">
         <v>1005</v>
       </c>
+      <c r="J245" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -20457,6 +20897,9 @@
       <c r="I246" s="0" t="n">
         <v>919</v>
       </c>
+      <c r="J246" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
@@ -20486,6 +20929,9 @@
       <c r="I247" s="0" t="n">
         <v>1008</v>
       </c>
+      <c r="J247" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
@@ -20515,6 +20961,9 @@
       <c r="I248" s="0" t="n">
         <v>1009</v>
       </c>
+      <c r="J248" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
@@ -20544,6 +20993,9 @@
       <c r="I249" s="0" t="n">
         <v>1010</v>
       </c>
+      <c r="J249" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
@@ -20573,6 +21025,9 @@
       <c r="I250" s="0" t="n">
         <v>779</v>
       </c>
+      <c r="J250" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
@@ -20602,6 +21057,9 @@
       <c r="I251" s="0" t="n">
         <v>1012</v>
       </c>
+      <c r="J251" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
@@ -20631,6 +21089,9 @@
       <c r="I252" s="0" t="n">
         <v>584</v>
       </c>
+      <c r="J252" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
@@ -20660,6 +21121,9 @@
       <c r="I253" s="0" t="n">
         <v>650</v>
       </c>
+      <c r="J253" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
@@ -20689,6 +21153,9 @@
       <c r="I254" s="0" t="n">
         <v>857</v>
       </c>
+      <c r="J254" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -20718,6 +21185,9 @@
       <c r="I255" s="0" t="n">
         <v>553</v>
       </c>
+      <c r="J255" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
@@ -20747,6 +21217,9 @@
       <c r="I256" s="0" t="n">
         <v>990</v>
       </c>
+      <c r="J256" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
@@ -20776,6 +21249,9 @@
       <c r="I257" s="0" t="n">
         <v>1020</v>
       </c>
+      <c r="J257" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
@@ -20805,6 +21281,9 @@
       <c r="I258" s="0" t="n">
         <v>1021</v>
       </c>
+      <c r="J258" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
@@ -20834,6 +21313,9 @@
       <c r="I259" s="0" t="n">
         <v>600</v>
       </c>
+      <c r="J259" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
@@ -20863,6 +21345,9 @@
       <c r="I260" s="0" t="n">
         <v>695</v>
       </c>
+      <c r="J260" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
@@ -20892,6 +21377,9 @@
       <c r="I261" s="0" t="n">
         <v>976</v>
       </c>
+      <c r="J261" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
@@ -20921,6 +21409,9 @@
       <c r="I262" s="0" t="n">
         <v>495</v>
       </c>
+      <c r="J262" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
@@ -20950,6 +21441,9 @@
       <c r="I263" s="0" t="n">
         <v>646</v>
       </c>
+      <c r="J263" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
@@ -20979,6 +21473,9 @@
       <c r="I264" s="0" t="n">
         <v>1015</v>
       </c>
+      <c r="J264" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
@@ -21008,6 +21505,9 @@
       <c r="I265" s="0" t="n">
         <v>470</v>
       </c>
+      <c r="J265" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
@@ -21037,6 +21537,9 @@
       <c r="I266" s="0" t="n">
         <v>945</v>
       </c>
+      <c r="J266" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
@@ -21066,6 +21569,9 @@
       <c r="I267" s="0" t="n">
         <v>694</v>
       </c>
+      <c r="J267" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
@@ -21095,6 +21601,9 @@
       <c r="I268" s="0" t="n">
         <v>795</v>
       </c>
+      <c r="J268" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
@@ -21124,6 +21633,9 @@
       <c r="I269" s="0" t="n">
         <v>1010</v>
       </c>
+      <c r="J269" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
@@ -21153,6 +21665,9 @@
       <c r="I270" s="0" t="n">
         <v>952</v>
       </c>
+      <c r="J270" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
@@ -21182,6 +21697,9 @@
       <c r="I271" s="0" t="n">
         <v>549</v>
       </c>
+      <c r="J271" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
@@ -21211,6 +21729,9 @@
       <c r="I272" s="0" t="n">
         <v>853</v>
       </c>
+      <c r="J272" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
@@ -21240,6 +21761,9 @@
       <c r="I273" s="0" t="n">
         <v>938</v>
       </c>
+      <c r="J273" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
@@ -21269,6 +21793,9 @@
       <c r="I274" s="0" t="n">
         <v>1016</v>
       </c>
+      <c r="J274" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
@@ -21298,6 +21825,9 @@
       <c r="I275" s="0" t="n">
         <v>633</v>
       </c>
+      <c r="J275" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
@@ -21327,6 +21857,9 @@
       <c r="I276" s="0" t="n">
         <v>780</v>
       </c>
+      <c r="J276" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
@@ -21356,6 +21889,9 @@
       <c r="I277" s="0" t="n">
         <v>551</v>
       </c>
+      <c r="J277" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
@@ -21385,6 +21921,9 @@
       <c r="I278" s="0" t="n">
         <v>1001</v>
       </c>
+      <c r="J278" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
@@ -21414,6 +21953,9 @@
       <c r="I279" s="0" t="n">
         <v>1036</v>
       </c>
+      <c r="J279" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
@@ -21443,6 +21985,9 @@
       <c r="I280" s="0" t="n">
         <v>1019</v>
       </c>
+      <c r="J280" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
@@ -21472,6 +22017,9 @@
       <c r="I281" s="0" t="n">
         <v>774</v>
       </c>
+      <c r="J281" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
@@ -21501,6 +22049,9 @@
       <c r="I282" s="0" t="n">
         <v>479</v>
       </c>
+      <c r="J282" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
@@ -21530,6 +22081,9 @@
       <c r="I283" s="0" t="n">
         <v>1030</v>
       </c>
+      <c r="J283" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
@@ -21559,6 +22113,9 @@
       <c r="I284" s="0" t="n">
         <v>811</v>
       </c>
+      <c r="J284" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
@@ -21588,6 +22145,9 @@
       <c r="I285" s="0" t="n">
         <v>777</v>
       </c>
+      <c r="J285" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
@@ -21617,6 +22177,9 @@
       <c r="I286" s="0" t="n">
         <v>1002</v>
       </c>
+      <c r="J286" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
@@ -21646,6 +22209,9 @@
       <c r="I287" s="0" t="n">
         <v>138</v>
       </c>
+      <c r="J287" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
@@ -21675,6 +22241,9 @@
       <c r="I288" s="0" t="n">
         <v>927</v>
       </c>
+      <c r="J288" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
@@ -21704,6 +22273,9 @@
       <c r="I289" s="0" t="n">
         <v>579</v>
       </c>
+      <c r="J289" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
@@ -21733,6 +22305,9 @@
       <c r="I290" s="0" t="n">
         <v>668</v>
       </c>
+      <c r="J290" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
@@ -21762,6 +22337,9 @@
       <c r="I291" s="0" t="n">
         <v>850</v>
       </c>
+      <c r="J291" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
@@ -21791,6 +22369,9 @@
       <c r="I292" s="0" t="n">
         <v>863</v>
       </c>
+      <c r="J292" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
@@ -21820,6 +22401,9 @@
       <c r="I293" s="0" t="n">
         <v>705</v>
       </c>
+      <c r="J293" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
@@ -21849,6 +22433,9 @@
       <c r="I294" s="0" t="n">
         <v>856</v>
       </c>
+      <c r="J294" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
@@ -21878,6 +22465,9 @@
       <c r="I295" s="0" t="n">
         <v>548</v>
       </c>
+      <c r="J295" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
@@ -21907,6 +22497,9 @@
       <c r="I296" s="0" t="n">
         <v>736</v>
       </c>
+      <c r="J296" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
@@ -21936,6 +22529,9 @@
       <c r="I297" s="0" t="n">
         <v>691</v>
       </c>
+      <c r="J297" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
@@ -21965,6 +22561,9 @@
       <c r="I298" s="0" t="n">
         <v>786</v>
       </c>
+      <c r="J298" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
@@ -21994,6 +22593,9 @@
       <c r="I299" s="0" t="n">
         <v>761</v>
       </c>
+      <c r="J299" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
@@ -22023,6 +22625,9 @@
       <c r="I300" s="0" t="n">
         <v>1054</v>
       </c>
+      <c r="J300" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
@@ -22052,6 +22657,9 @@
       <c r="I301" s="0" t="n">
         <v>969</v>
       </c>
+      <c r="J301" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
@@ -22081,6 +22689,9 @@
       <c r="I302" s="0" t="n">
         <v>1055</v>
       </c>
+      <c r="J302" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
@@ -22110,6 +22721,9 @@
       <c r="I303" s="0" t="n">
         <v>972</v>
       </c>
+      <c r="J303" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
@@ -22139,6 +22753,9 @@
       <c r="I304" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="J304" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
@@ -22168,6 +22785,9 @@
       <c r="I305" s="0" t="n">
         <v>660</v>
       </c>
+      <c r="J305" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
@@ -22197,6 +22817,9 @@
       <c r="I306" s="0" t="n">
         <v>184</v>
       </c>
+      <c r="J306" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
@@ -22226,6 +22849,9 @@
       <c r="I307" s="0" t="n">
         <v>851</v>
       </c>
+      <c r="J307" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
@@ -22255,6 +22881,9 @@
       <c r="I308" s="0" t="n">
         <v>916</v>
       </c>
+      <c r="J308" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
@@ -22284,6 +22913,9 @@
       <c r="I309" s="0" t="n">
         <v>1031</v>
       </c>
+      <c r="J309" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
@@ -22313,6 +22945,9 @@
       <c r="I310" s="0" t="n">
         <v>902</v>
       </c>
+      <c r="J310" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
@@ -22342,6 +22977,9 @@
       <c r="I311" s="0" t="n">
         <v>948</v>
       </c>
+      <c r="J311" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
@@ -22371,6 +23009,9 @@
       <c r="I312" s="0" t="n">
         <v>750</v>
       </c>
+      <c r="J312" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
@@ -22400,6 +23041,9 @@
       <c r="I313" s="0" t="n">
         <v>810</v>
       </c>
+      <c r="J313" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
@@ -22429,6 +23073,9 @@
       <c r="I314" s="0" t="n">
         <v>965</v>
       </c>
+      <c r="J314" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
@@ -22458,6 +23105,9 @@
       <c r="I315" s="0" t="n">
         <v>1017</v>
       </c>
+      <c r="J315" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
@@ -22487,6 +23137,9 @@
       <c r="I316" s="0" t="n">
         <v>776</v>
       </c>
+      <c r="J316" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
@@ -22516,6 +23169,9 @@
       <c r="I317" s="0" t="n">
         <v>624</v>
       </c>
+      <c r="J317" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
@@ -22545,6 +23201,9 @@
       <c r="I318" s="0" t="n">
         <v>1060</v>
       </c>
+      <c r="J318" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
@@ -22574,6 +23233,9 @@
       <c r="I319" s="0" t="n">
         <v>1029</v>
       </c>
+      <c r="J319" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
@@ -22603,6 +23265,9 @@
       <c r="I320" s="0" t="n">
         <v>1046</v>
       </c>
+      <c r="J320" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
@@ -22632,6 +23297,9 @@
       <c r="I321" s="0" t="n">
         <v>1044</v>
       </c>
+      <c r="J321" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
@@ -22661,6 +23329,9 @@
       <c r="I322" s="0" t="n">
         <v>603</v>
       </c>
+      <c r="J322" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
@@ -22690,6 +23361,9 @@
       <c r="I323" s="0" t="n">
         <v>1058</v>
       </c>
+      <c r="J323" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
@@ -22718,6 +23392,9 @@
       </c>
       <c r="I324" s="0" t="n">
         <v>1059</v>
+      </c>
+      <c r="J324" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -22772,779 +23449,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C71"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
   </cols>
@@ -23643,18 +23554,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
   </cols>
@@ -23671,6 +23582,210 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1007" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>-1637.5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-1300.00000000077</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>-962.500000001537</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-962.500000001537</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>-625.000000002599</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>-287.500000003661</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-287.500000003661</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>49.999999996975</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>387.499999998024</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>567</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>387.499999998024</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>724.999999998499</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1062.5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -23689,16 +23804,245 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1004" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">VLOOKUP(A2,xnod!$A$2:$C$1063,2)</f>
+        <v>0.975</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">$B$20*B2+$B$21</f>
+        <v>-1637.5</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">VLOOKUP(A3,xnod!$A$2:$C$1063,2)</f>
+        <v>0.925000000000114</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">$B$20*B3+$B$21</f>
+        <v>-1300.00000000077</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">VLOOKUP(A4,xnod!$A$2:$C$1063,2)</f>
+        <v>0.875000000000228</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">$B$20*B4+$B$21</f>
+        <v>-962.50000000154</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">VLOOKUP(A5,xnod!$A$2:$C$1063,2)</f>
+        <v>0.825000000000385</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">$B$20*B5+$B$21</f>
+        <v>-625.000000002599</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">VLOOKUP(A6,xnod!$A$2:$C$1063,2)</f>
+        <v>0.775000000000542</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">$B$20*B6+$B$21</f>
+        <v>-287.500000003659</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">VLOOKUP(A7,xnod!$A$2:$C$1063,2)</f>
+        <v>0.725000000000448</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">$B$20*B7+$B$21</f>
+        <v>49.9999999969759</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">VLOOKUP(A8,xnod!$A$2:$C$1063,2)</f>
+        <v>0.675000000000293</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">$B$20*B8+$B$21</f>
+        <v>387.499999998023</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">VLOOKUP(A9,xnod!$A$2:$C$1063,2)</f>
+        <v>0.625000000000223</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">$B$20*B9+$B$21</f>
+        <v>724.999999998496</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">VLOOKUP(A10,xnod!$A$2:$C$1063,2)</f>
+        <v>0.575</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">$B$20*B10+$B$21</f>
+        <v>1062.5</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">B2</f>
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">-(12*Rm)/(xl - xr)^3</f>
+        <v>-6750</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <f aca="false">(- Ry*xl^2 + 2*Ry*xl*xr + 6*Rm*xl - Ry*xr^2 + 6*Rm*xr)/(xl - xr)^3</f>
+        <v>4943.75</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -23717,117 +24061,582 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-1637.5</v>
+        <v>24</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>-1300.00000000077</v>
+        <v>13000</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>-962.500000001537</v>
+        <v>13000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>13000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>781</v>
+        <v>567</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-962.500000001537</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-625.000000002599</v>
+        <v>13000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>-287.500000003661</v>
+        <v>13000</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>13000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>123</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-287.500000003661</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>49.999999996975</v>
+        <v>13000</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>387.499999998024</v>
+        <v>13000</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>567</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>387.499999998024</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>724.999999998499</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1062.5</v>
+      <c r="C13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>567</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>567</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
@@ -23843,734 +24652,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">VLOOKUP(A2,xnod!$A$2:$C$1063,2)</f>
-        <v>0.975</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">$B$20*B2+$B$21</f>
-        <v>-1637.5</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">VLOOKUP(A3,xnod!$A$2:$C$1063,2)</f>
-        <v>0.925000000000114</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">$B$20*B3+$B$21</f>
-        <v>-1300.00000000077</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>109</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">VLOOKUP(A4,xnod!$A$2:$C$1063,2)</f>
-        <v>0.875000000000228</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">$B$20*B4+$B$21</f>
-        <v>-962.500000001537</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">VLOOKUP(A5,xnod!$A$2:$C$1063,2)</f>
-        <v>0.825000000000385</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">$B$20*B5+$B$21</f>
-        <v>-625.000000002599</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">VLOOKUP(A6,xnod!$A$2:$C$1063,2)</f>
-        <v>0.775000000000542</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">$B$20*B6+$B$21</f>
-        <v>-287.500000003661</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">VLOOKUP(A7,xnod!$A$2:$C$1063,2)</f>
-        <v>0.725000000000448</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">$B$20*B7+$B$21</f>
-        <v>49.999999996975</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>111</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">VLOOKUP(A8,xnod!$A$2:$C$1063,2)</f>
-        <v>0.675000000000293</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">$B$20*B8+$B$21</f>
-        <v>387.499999998024</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">VLOOKUP(A9,xnod!$A$2:$C$1063,2)</f>
-        <v>0.625000000000223</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">$B$20*B9+$B$21</f>
-        <v>724.999999998499</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">VLOOKUP(A10,xnod!$A$2:$C$1063,2)</f>
-        <v>0.575</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">$B$20*B10+$B$21</f>
-        <v>1062.5</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <f aca="false">B10</f>
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <f aca="false">B2</f>
-        <v>0.975</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>-115</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <f aca="false">-(12*Rm)/(xl - xr)^3</f>
-        <v>-6750</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <f aca="false">(- Ry*xl^2 + 2*Ry*xl*xr + 6*Rm*xl - Ry*xr^2 + 6*Rm*xr)/(xl - xr)^3</f>
-        <v>4943.75</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>567</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>251</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>176</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>234</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>781</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>242</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>781</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>262</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>231</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>781</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>166</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>781</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>345</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>345</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>567</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>567</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>567</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>146</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>243</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>13000</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24600,4 +24709,127 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7" t="n">
+        <v>21538000</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>